--- a/Excel/ELL_Departments & Units.xlsx
+++ b/Excel/ELL_Departments & Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="209">
   <si>
     <t>Department Name</t>
   </si>
@@ -629,6 +629,18 @@
   </si>
   <si>
     <t>Sample - 2023/15/05 11:01:52</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/15/05 19:46:18</t>
+  </si>
+  <si>
+    <t>Sample - 2023/15/05 19:47:21</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/15/05 19:50:53</t>
+  </si>
+  <si>
+    <t>Sample - 2023/15/05 19:52:08</t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1737,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/Excel/ELL_Departments & Units.xlsx
+++ b/Excel/ELL_Departments & Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
   <si>
     <t>Department Name</t>
   </si>
@@ -641,6 +641,18 @@
   </si>
   <si>
     <t>Sample - 2023/15/05 19:52:08</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/16/05 12:15:16</t>
+  </si>
+  <si>
+    <t>Sample - 2023/16/05 12:16:47</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/16/05 12:40:53</t>
+  </si>
+  <si>
+    <t>Sample - 2023/16/05 12:42:03</t>
   </si>
 </sst>
 </file>
@@ -1737,10 +1749,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/Excel/ELL_Departments & Units.xlsx
+++ b/Excel/ELL_Departments & Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="223">
   <si>
     <t>Department Name</t>
   </si>
@@ -653,6 +653,36 @@
   </si>
   <si>
     <t>Sample - 2023/16/05 12:42:03</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/17/05 19:02:17</t>
+  </si>
+  <si>
+    <t>Sample - 2023/17/05 19:03:35</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/17/05 19:22:44</t>
+  </si>
+  <si>
+    <t>Sample - 2023/17/05 19:23:45</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/17/05 19:41:16</t>
+  </si>
+  <si>
+    <t>Sample - 2023/17/05 19:42:22</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/17/05 19:55:21</t>
+  </si>
+  <si>
+    <t>Sample - 2023/17/05 19:56:26</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/18/05 11:08:56</t>
+  </si>
+  <si>
+    <t>Sample - 2023/18/05 11:10:24</t>
   </si>
 </sst>
 </file>
@@ -1749,10 +1779,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/Excel/ELL_Departments & Units.xlsx
+++ b/Excel/ELL_Departments & Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="230">
   <si>
     <t>Department Name</t>
   </si>
@@ -683,6 +683,27 @@
   </si>
   <si>
     <t>Sample - 2023/18/05 11:10:24</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/18/05 11:31:29</t>
+  </si>
+  <si>
+    <t>Sample - 2023/18/05 11:32:44</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/22/05 11:15:51</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/22/05 11:20:29</t>
+  </si>
+  <si>
+    <t>Sample - 2023/22/05 11:21:46</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/22/05 13:13:31</t>
+  </si>
+  <si>
+    <t>Sample - 2023/22/05 13:14:39</t>
   </si>
 </sst>
 </file>
@@ -1779,10 +1800,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/Excel/ELL_Departments & Units.xlsx
+++ b/Excel/ELL_Departments & Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="242">
   <si>
     <t>Department Name</t>
   </si>
@@ -704,6 +704,42 @@
   </si>
   <si>
     <t>Sample - 2023/22/05 13:14:39</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 11:07:49</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 11:09:04</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 12:38:58</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 12:40:07</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 12:45:59</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 12:47:07</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 15:45:09</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 15:46:16</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 16:02:18</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 16:03:22</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 16:54:09</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 16:55:11</t>
   </si>
 </sst>
 </file>
@@ -1800,10 +1836,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>

--- a/Excel/ELL_Departments & Units.xlsx
+++ b/Excel/ELL_Departments & Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="249">
   <si>
     <t>Department Name</t>
   </si>
@@ -740,6 +740,27 @@
   </si>
   <si>
     <t>Sample - 2023/23/05 16:55:11</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 17:47:18</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 17:48:23</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 18:01:22</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 18:04:53</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 18:07:36</t>
+  </si>
+  <si>
+    <t>Sample - 2023/23/05 18:08:36</t>
+  </si>
+  <si>
+    <t>Madurai - 2023/23/05 18:16:04</t>
   </si>
 </sst>
 </file>
@@ -1836,10 +1857,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
